--- a/data/text_data.xlsx
+++ b/data/text_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8e1a904a64e38e/Documents/Oregon/Courses/datascience spec/edld_640/EDLD-640-Capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{907BD91E-C660-4CA1-881D-28E112AC9269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{907BD91E-C660-4CA1-881D-28E112AC9269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7667C6D1-C436-4120-B121-A5B199CF860B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC8F5CA5-03B3-48F2-BCAE-1DEDA9FD65F4}"/>
+    <workbookView xWindow="-36" yWindow="108" windowWidth="13080" windowHeight="10248" xr2:uid="{AC8F5CA5-03B3-48F2-BCAE-1DEDA9FD65F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="349">
   <si>
     <t>source</t>
   </si>
@@ -1080,6 +1080,9 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>rank</t>
   </si>
 </sst>
 </file>
@@ -1115,9 +1118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,7 +1426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1432,15 +1434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFB453C-8855-4FD2-A944-01D7C8226192}">
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="F325" sqref="F325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1456,12 +1458,15 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>54633</v>
       </c>
       <c r="C2" t="s">
@@ -1473,12 +1478,15 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>53086</v>
       </c>
       <c r="C3" t="s">
@@ -1490,12 +1498,15 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>55469</v>
       </c>
       <c r="C4" t="s">
@@ -1507,12 +1518,15 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>52769</v>
       </c>
       <c r="C5" t="s">
@@ -1524,12 +1538,15 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>55387</v>
       </c>
       <c r="C6" t="s">
@@ -1541,12 +1558,15 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>55284</v>
       </c>
       <c r="C7" t="s">
@@ -1558,12 +1578,15 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>55104</v>
       </c>
       <c r="C8" t="s">
@@ -1575,12 +1598,15 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>55491</v>
       </c>
       <c r="C9" t="s">
@@ -1592,12 +1618,15 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>55398</v>
       </c>
       <c r="C10" t="s">
@@ -1609,12 +1638,15 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>54995</v>
       </c>
       <c r="C11" t="s">
@@ -1626,12 +1658,15 @@
       <c r="E11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>55088</v>
       </c>
       <c r="C12" t="s">
@@ -1643,12 +1678,15 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>55564</v>
       </c>
       <c r="C13" t="s">
@@ -1660,12 +1698,15 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>55315</v>
       </c>
       <c r="C14" t="s">
@@ -1677,12 +1718,15 @@
       <c r="E14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>52005</v>
       </c>
       <c r="C15" t="s">
@@ -1694,12 +1738,15 @@
       <c r="E15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>55526</v>
       </c>
       <c r="C16" t="s">
@@ -1711,12 +1758,15 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>55523</v>
       </c>
       <c r="C17" t="s">
@@ -1728,12 +1778,15 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>55383</v>
       </c>
       <c r="C18" t="s">
@@ -1745,12 +1798,15 @@
       <c r="E18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>55461</v>
       </c>
       <c r="C19" t="s">
@@ -1762,12 +1818,15 @@
       <c r="E19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>55507</v>
       </c>
       <c r="C20" t="s">
@@ -1779,12 +1838,15 @@
       <c r="E20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>55475</v>
       </c>
       <c r="C21" t="s">
@@ -1796,12 +1858,15 @@
       <c r="E21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>52837</v>
       </c>
       <c r="C22" t="s">
@@ -1813,12 +1878,15 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>55356</v>
       </c>
       <c r="C23" t="s">
@@ -1830,12 +1898,15 @@
       <c r="E23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>55200</v>
       </c>
       <c r="C24" t="s">
@@ -1847,12 +1918,15 @@
       <c r="E24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>55242</v>
       </c>
       <c r="C25" t="s">
@@ -1864,12 +1938,15 @@
       <c r="E25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>55274</v>
       </c>
       <c r="C26" t="s">
@@ -1881,12 +1958,15 @@
       <c r="E26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>55029</v>
       </c>
       <c r="C27" t="s">
@@ -1898,12 +1978,15 @@
       <c r="E27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>50579</v>
       </c>
       <c r="C28" t="s">
@@ -1915,12 +1998,15 @@
       <c r="E28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>55415</v>
       </c>
       <c r="C29" t="s">
@@ -1932,12 +2018,15 @@
       <c r="E29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>54797</v>
       </c>
       <c r="C30" t="s">
@@ -1949,12 +2038,15 @@
       <c r="E30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>55040</v>
       </c>
       <c r="C31" t="s">
@@ -1966,12 +2058,15 @@
       <c r="E31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>54595</v>
       </c>
       <c r="C32" t="s">
@@ -1983,12 +2078,15 @@
       <c r="E32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>55403</v>
       </c>
       <c r="C33" t="s">
@@ -2000,12 +2098,15 @@
       <c r="E33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>55286</v>
       </c>
       <c r="C34" t="s">
@@ -2017,12 +2118,15 @@
       <c r="E34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>55603</v>
       </c>
       <c r="C35" t="s">
@@ -2034,12 +2138,15 @@
       <c r="E35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>55397</v>
       </c>
       <c r="C36" t="s">
@@ -2051,12 +2158,15 @@
       <c r="E36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>55156</v>
       </c>
       <c r="C37" t="s">
@@ -2068,12 +2178,15 @@
       <c r="E37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>55426</v>
       </c>
       <c r="C38" t="s">
@@ -2085,12 +2198,15 @@
       <c r="E38" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>51910</v>
       </c>
       <c r="C39" t="s">
@@ -2102,12 +2218,15 @@
       <c r="E39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>55310</v>
       </c>
       <c r="C40" t="s">
@@ -2119,12 +2238,15 @@
       <c r="E40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>55511</v>
       </c>
       <c r="C41" t="s">
@@ -2136,12 +2258,15 @@
       <c r="E41" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>54698</v>
       </c>
       <c r="C42" t="s">
@@ -2153,12 +2278,15 @@
       <c r="E42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>52606</v>
       </c>
       <c r="C43" t="s">
@@ -2170,12 +2298,15 @@
       <c r="E43" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>55637</v>
       </c>
       <c r="C44" t="s">
@@ -2187,12 +2318,15 @@
       <c r="E44" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>53236</v>
       </c>
       <c r="C45" t="s">
@@ -2204,12 +2338,15 @@
       <c r="E45" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>51833</v>
       </c>
       <c r="C46" t="s">
@@ -2221,12 +2358,15 @@
       <c r="E46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>55625</v>
       </c>
       <c r="C47" t="s">
@@ -2238,12 +2378,15 @@
       <c r="E47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>55147</v>
       </c>
       <c r="C48" t="s">
@@ -2255,12 +2398,15 @@
       <c r="E48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>55494</v>
       </c>
       <c r="C49" t="s">
@@ -2272,12 +2418,15 @@
       <c r="E49" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>54643</v>
       </c>
       <c r="C50" t="s">
@@ -2289,12 +2438,15 @@
       <c r="E50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>51545</v>
       </c>
       <c r="C51" t="s">
@@ -2306,12 +2458,15 @@
       <c r="E51" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>55654</v>
       </c>
       <c r="C52" t="s">
@@ -2323,12 +2478,15 @@
       <c r="E52" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>53561</v>
       </c>
       <c r="C53" t="s">
@@ -2340,12 +2498,15 @@
       <c r="E53" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>55648</v>
       </c>
       <c r="C54" t="s">
@@ -2357,12 +2518,15 @@
       <c r="E54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>55317</v>
       </c>
       <c r="C55" t="s">
@@ -2374,12 +2538,15 @@
       <c r="E55" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>55010</v>
       </c>
       <c r="C56" t="s">
@@ -2391,12 +2558,15 @@
       <c r="E56" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>54041</v>
       </c>
       <c r="C57" t="s">
@@ -2408,12 +2578,15 @@
       <c r="E57" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>55639</v>
       </c>
       <c r="C58" t="s">
@@ -2425,12 +2598,15 @@
       <c r="E58" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>54284</v>
       </c>
       <c r="C59" t="s">
@@ -2442,12 +2618,15 @@
       <c r="E59" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>55609</v>
       </c>
       <c r="C60" t="s">
@@ -2459,12 +2638,15 @@
       <c r="E60" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>55353</v>
       </c>
       <c r="C61" t="s">
@@ -2476,12 +2658,15 @@
       <c r="E61" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>55448</v>
       </c>
       <c r="C62" t="s">
@@ -2493,12 +2678,15 @@
       <c r="E62" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>55647</v>
       </c>
       <c r="C63" t="s">
@@ -2510,12 +2698,15 @@
       <c r="E63" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>55283</v>
       </c>
       <c r="C64" t="s">
@@ -2527,12 +2718,15 @@
       <c r="E64" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>53735</v>
       </c>
       <c r="C65" t="s">
@@ -2544,12 +2738,15 @@
       <c r="E65" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>54646</v>
       </c>
       <c r="C66" t="s">
@@ -2561,12 +2758,15 @@
       <c r="E66" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>55601</v>
       </c>
       <c r="C67" t="s">
@@ -2578,12 +2778,15 @@
       <c r="E67" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>55247</v>
       </c>
       <c r="C68" t="s">
@@ -2595,12 +2798,15 @@
       <c r="E68" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>55572</v>
       </c>
       <c r="C69" t="s">
@@ -2612,12 +2818,15 @@
       <c r="E69" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>55600</v>
       </c>
       <c r="C70" t="s">
@@ -2629,12 +2838,15 @@
       <c r="E70" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>55235</v>
       </c>
       <c r="C71" t="s">
@@ -2646,12 +2858,15 @@
       <c r="E71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>55632</v>
       </c>
       <c r="C72" t="s">
@@ -2663,12 +2878,15 @@
       <c r="E72" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>55450</v>
       </c>
       <c r="C73" t="s">
@@ -2680,12 +2898,15 @@
       <c r="E73" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>51400</v>
       </c>
       <c r="C74" t="s">
@@ -2697,12 +2918,15 @@
       <c r="E74" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>55479</v>
       </c>
       <c r="C75" t="s">
@@ -2714,12 +2938,15 @@
       <c r="E75" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>55115</v>
       </c>
       <c r="C76" t="s">
@@ -2731,12 +2958,15 @@
       <c r="E76" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>55497</v>
       </c>
       <c r="C77" t="s">
@@ -2748,12 +2978,15 @@
       <c r="E77" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>55723</v>
       </c>
       <c r="C78" t="s">
@@ -2765,12 +2998,15 @@
       <c r="E78" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>53401</v>
       </c>
       <c r="C79" t="s">
@@ -2782,12 +3018,15 @@
       <c r="E79" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>55621</v>
       </c>
       <c r="C80" t="s">
@@ -2799,12 +3038,15 @@
       <c r="E80" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>55702</v>
       </c>
       <c r="C81" t="s">
@@ -2816,12 +3058,15 @@
       <c r="E81" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>53896</v>
       </c>
       <c r="C82" t="s">
@@ -2833,12 +3078,15 @@
       <c r="E82" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>54922</v>
       </c>
       <c r="C83" t="s">
@@ -2850,12 +3098,15 @@
       <c r="E83" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>49323</v>
       </c>
       <c r="C84" t="s">
@@ -2867,12 +3118,15 @@
       <c r="E84" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>52635</v>
       </c>
       <c r="C85" t="s">
@@ -2884,12 +3138,15 @@
       <c r="E85" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>55783</v>
       </c>
       <c r="C86" t="s">
@@ -2901,12 +3158,15 @@
       <c r="E86" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>55212</v>
       </c>
       <c r="C87" t="s">
@@ -2918,12 +3178,15 @@
       <c r="E87" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>54434</v>
       </c>
       <c r="C88" t="s">
@@ -2935,12 +3198,15 @@
       <c r="E88" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>54750</v>
       </c>
       <c r="C89" t="s">
@@ -2952,12 +3218,15 @@
       <c r="E89" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>54842</v>
       </c>
       <c r="C90" t="s">
@@ -2969,12 +3238,15 @@
       <c r="E90" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>55657</v>
       </c>
       <c r="C91" t="s">
@@ -2986,12 +3258,15 @@
       <c r="E91" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>55506</v>
       </c>
       <c r="C92" t="s">
@@ -3003,12 +3278,15 @@
       <c r="E92" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>55098</v>
       </c>
       <c r="C93" t="s">
@@ -3020,12 +3298,15 @@
       <c r="E93" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>55249</v>
       </c>
       <c r="C94" t="s">
@@ -3037,12 +3318,15 @@
       <c r="E94" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>53225</v>
       </c>
       <c r="C95" t="s">
@@ -3054,12 +3338,15 @@
       <c r="E95" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>55677</v>
       </c>
       <c r="C96" t="s">
@@ -3071,12 +3358,15 @@
       <c r="E96" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>55227</v>
       </c>
       <c r="C97" t="s">
@@ -3088,12 +3378,15 @@
       <c r="E97" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>54096</v>
       </c>
       <c r="C98" t="s">
@@ -3105,12 +3398,15 @@
       <c r="E98" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>53097</v>
       </c>
       <c r="C99" t="s">
@@ -3122,12 +3418,15 @@
       <c r="E99" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>52924</v>
       </c>
       <c r="C100" t="s">
@@ -3139,12 +3438,15 @@
       <c r="E100" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>55015</v>
       </c>
       <c r="C101" t="s">
@@ -3156,12 +3458,15 @@
       <c r="E101" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>55548</v>
       </c>
       <c r="C102" t="s">
@@ -3173,12 +3478,15 @@
       <c r="E102" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>50691</v>
       </c>
       <c r="C103" t="s">
@@ -3190,12 +3498,15 @@
       <c r="E103" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>55224</v>
       </c>
       <c r="C104" t="s">
@@ -3207,12 +3518,15 @@
       <c r="E104" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>55758</v>
       </c>
       <c r="C105" t="s">
@@ -3224,12 +3538,15 @@
       <c r="E105" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>55037</v>
       </c>
       <c r="C106" t="s">
@@ -3241,12 +3558,15 @@
       <c r="E106" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
         <v>55498</v>
       </c>
       <c r="C107" t="s">
@@ -3258,12 +3578,15 @@
       <c r="E107" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>4</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>55778</v>
       </c>
       <c r="C108" t="s">
@@ -3275,12 +3598,15 @@
       <c r="E108" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>55140</v>
       </c>
       <c r="C109" t="s">
@@ -3292,12 +3618,15 @@
       <c r="E109" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>55549</v>
       </c>
       <c r="C110" t="s">
@@ -3309,12 +3638,15 @@
       <c r="E110" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>55499</v>
       </c>
       <c r="C111" t="s">
@@ -3326,12 +3658,15 @@
       <c r="E111" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>55775</v>
       </c>
       <c r="C112" t="s">
@@ -3343,12 +3678,15 @@
       <c r="E112" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>52647</v>
       </c>
       <c r="C113" t="s">
@@ -3360,12 +3698,15 @@
       <c r="E113" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>49714</v>
       </c>
       <c r="C114" t="s">
@@ -3377,12 +3718,15 @@
       <c r="E114" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>55456</v>
       </c>
       <c r="C115" t="s">
@@ -3394,12 +3738,15 @@
       <c r="E115" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>55405</v>
       </c>
       <c r="C116" t="s">
@@ -3411,12 +3758,15 @@
       <c r="E116" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>53040</v>
       </c>
       <c r="C117" t="s">
@@ -3428,12 +3778,15 @@
       <c r="E117" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>4</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>53278</v>
       </c>
       <c r="C118" t="s">
@@ -3445,12 +3798,15 @@
       <c r="E118" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>4</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>55784</v>
       </c>
       <c r="C119" t="s">
@@ -3462,12 +3818,15 @@
       <c r="E119" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>4</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>55332</v>
       </c>
       <c r="C120" t="s">
@@ -3479,12 +3838,15 @@
       <c r="E120" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>55395</v>
       </c>
       <c r="C121" t="s">
@@ -3496,12 +3858,15 @@
       <c r="E121" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>54672</v>
       </c>
       <c r="C122" t="s">
@@ -3513,12 +3878,15 @@
       <c r="E122" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>53436</v>
       </c>
       <c r="C123" t="s">
@@ -3530,12 +3898,15 @@
       <c r="E123" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>53473</v>
       </c>
       <c r="C124" t="s">
@@ -3547,12 +3918,15 @@
       <c r="E124" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>53186</v>
       </c>
       <c r="C125" t="s">
@@ -3564,12 +3938,15 @@
       <c r="E125" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>55590</v>
       </c>
       <c r="C126" t="s">
@@ -3581,12 +3958,15 @@
       <c r="E126" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>52771</v>
       </c>
       <c r="C127" t="s">
@@ -3598,12 +3978,15 @@
       <c r="E127" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>4</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128">
         <v>55236</v>
       </c>
       <c r="C128" t="s">
@@ -3615,12 +3998,15 @@
       <c r="E128" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129">
         <v>55214</v>
       </c>
       <c r="C129" t="s">
@@ -3632,12 +4018,15 @@
       <c r="E129" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130">
         <v>55712</v>
       </c>
       <c r="C130" t="s">
@@ -3649,12 +4038,15 @@
       <c r="E130" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131">
         <v>53812</v>
       </c>
       <c r="C131" t="s">
@@ -3666,12 +4058,15 @@
       <c r="E131" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132">
         <v>55695</v>
       </c>
       <c r="C132" t="s">
@@ -3683,12 +4078,15 @@
       <c r="E132" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133">
         <v>55779</v>
       </c>
       <c r="C133" t="s">
@@ -3700,12 +4098,15 @@
       <c r="E133" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134">
         <v>55009</v>
       </c>
       <c r="C134" t="s">
@@ -3717,12 +4118,15 @@
       <c r="E134" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135">
         <v>55292</v>
       </c>
       <c r="C135" t="s">
@@ -3734,12 +4138,15 @@
       <c r="E135" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136">
         <v>55039</v>
       </c>
       <c r="C136" t="s">
@@ -3751,12 +4158,15 @@
       <c r="E136" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137">
         <v>54640</v>
       </c>
       <c r="C137" t="s">
@@ -3768,12 +4178,15 @@
       <c r="E137" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138">
         <v>55550</v>
       </c>
       <c r="C138" t="s">
@@ -3785,12 +4198,15 @@
       <c r="E138" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>4</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139">
         <v>55666</v>
       </c>
       <c r="C139" t="s">
@@ -3802,12 +4218,15 @@
       <c r="E139" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>4</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140">
         <v>55746</v>
       </c>
       <c r="C140" t="s">
@@ -3819,12 +4238,15 @@
       <c r="E140" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141">
         <v>55255</v>
       </c>
       <c r="C141" t="s">
@@ -3836,12 +4258,15 @@
       <c r="E141" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142">
         <v>55110</v>
       </c>
       <c r="C142" t="s">
@@ -3853,12 +4278,15 @@
       <c r="E142" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143">
         <v>55314</v>
       </c>
       <c r="C143" t="s">
@@ -3870,12 +4298,15 @@
       <c r="E143" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>4</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144">
         <v>49748</v>
       </c>
       <c r="C144" t="s">
@@ -3887,12 +4318,15 @@
       <c r="E144" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145">
         <v>55583</v>
       </c>
       <c r="C145" t="s">
@@ -3904,12 +4338,15 @@
       <c r="E145" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146">
         <v>55345</v>
       </c>
       <c r="C146" t="s">
@@ -3921,12 +4358,15 @@
       <c r="E146" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147">
         <v>55379</v>
       </c>
       <c r="C147" t="s">
@@ -3938,12 +4378,15 @@
       <c r="E147" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148">
         <v>55527</v>
       </c>
       <c r="C148" t="s">
@@ -3955,12 +4398,15 @@
       <c r="E148" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149">
         <v>55816</v>
       </c>
       <c r="C149" t="s">
@@ -3972,12 +4418,15 @@
       <c r="E149" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>4</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150">
         <v>54373</v>
       </c>
       <c r="C150" t="s">
@@ -3989,12 +4438,15 @@
       <c r="E150" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151">
         <v>55289</v>
       </c>
       <c r="C151" t="s">
@@ -4006,12 +4458,15 @@
       <c r="E151" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>4</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152">
         <v>55049</v>
       </c>
       <c r="C152" t="s">
@@ -4023,12 +4478,15 @@
       <c r="E152" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153">
         <v>54807</v>
       </c>
       <c r="C153" t="s">
@@ -4040,12 +4498,15 @@
       <c r="E153" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154">
         <v>55794</v>
       </c>
       <c r="C154" t="s">
@@ -4057,12 +4518,15 @@
       <c r="E154" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155">
         <v>55349</v>
       </c>
       <c r="C155" t="s">
@@ -4074,8 +4538,11 @@
       <c r="E155" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -4091,8 +4558,11 @@
       <c r="E156" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -4108,8 +4578,11 @@
       <c r="E157" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -4125,8 +4598,11 @@
       <c r="E158" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -4142,8 +4618,11 @@
       <c r="E159" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -4159,8 +4638,11 @@
       <c r="E160" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -4176,8 +4658,11 @@
       <c r="E161" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -4193,8 +4678,11 @@
       <c r="E162" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -4210,8 +4698,11 @@
       <c r="E163" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -4227,8 +4718,11 @@
       <c r="E164" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -4244,8 +4738,11 @@
       <c r="E165" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -4261,8 +4758,11 @@
       <c r="E166" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4278,8 +4778,11 @@
       <c r="E167" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4295,8 +4798,11 @@
       <c r="E168" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -4312,8 +4818,11 @@
       <c r="E169" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -4329,8 +4838,11 @@
       <c r="E170" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -4346,12 +4858,15 @@
       <c r="E171" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172">
         <v>54633</v>
       </c>
       <c r="C172" t="s">
@@ -4363,12 +4878,15 @@
       <c r="E172" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>4</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173">
         <v>53086</v>
       </c>
       <c r="C173" t="s">
@@ -4380,12 +4898,15 @@
       <c r="E173" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174">
         <v>55469</v>
       </c>
       <c r="C174" t="s">
@@ -4397,12 +4918,15 @@
       <c r="E174" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175">
         <v>52769</v>
       </c>
       <c r="C175" t="s">
@@ -4414,12 +4938,15 @@
       <c r="E175" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176">
         <v>55387</v>
       </c>
       <c r="C176" t="s">
@@ -4431,12 +4958,15 @@
       <c r="E176" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177">
         <v>55284</v>
       </c>
       <c r="C177" t="s">
@@ -4448,12 +4978,15 @@
       <c r="E177" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178">
         <v>55104</v>
       </c>
       <c r="C178" t="s">
@@ -4465,12 +4998,15 @@
       <c r="E178" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179">
         <v>55491</v>
       </c>
       <c r="C179" t="s">
@@ -4482,12 +5018,15 @@
       <c r="E179" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180">
         <v>55398</v>
       </c>
       <c r="C180" t="s">
@@ -4499,12 +5038,15 @@
       <c r="E180" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181">
         <v>54995</v>
       </c>
       <c r="C181" t="s">
@@ -4516,12 +5058,15 @@
       <c r="E181" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>4</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182">
         <v>55088</v>
       </c>
       <c r="C182" t="s">
@@ -4533,12 +5078,15 @@
       <c r="E182" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183">
         <v>55564</v>
       </c>
       <c r="C183" t="s">
@@ -4550,12 +5098,15 @@
       <c r="E183" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184">
         <v>55315</v>
       </c>
       <c r="C184" t="s">
@@ -4567,12 +5118,15 @@
       <c r="E184" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185">
         <v>52005</v>
       </c>
       <c r="C185" t="s">
@@ -4584,12 +5138,15 @@
       <c r="E185" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>4</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186">
         <v>55526</v>
       </c>
       <c r="C186" t="s">
@@ -4601,12 +5158,15 @@
       <c r="E186" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>4</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187">
         <v>55523</v>
       </c>
       <c r="C187" t="s">
@@ -4618,12 +5178,15 @@
       <c r="E187" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>4</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188">
         <v>55383</v>
       </c>
       <c r="C188" t="s">
@@ -4635,16 +5198,19 @@
       <c r="E188" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189">
         <v>55461</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D189" t="s">
         <v>21</v>
@@ -4652,12 +5218,15 @@
       <c r="E189" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>4</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190">
         <v>55507</v>
       </c>
       <c r="C190" t="s">
@@ -4669,12 +5238,15 @@
       <c r="E190" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191">
         <v>55475</v>
       </c>
       <c r="C191" t="s">
@@ -4686,12 +5258,15 @@
       <c r="E191" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192">
         <v>52837</v>
       </c>
       <c r="C192" t="s">
@@ -4703,12 +5278,15 @@
       <c r="E192" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193">
         <v>55356</v>
       </c>
       <c r="C193" t="s">
@@ -4720,12 +5298,15 @@
       <c r="E193" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>4</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194">
         <v>55200</v>
       </c>
       <c r="C194" t="s">
@@ -4737,12 +5318,15 @@
       <c r="E194" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195">
         <v>55242</v>
       </c>
       <c r="C195" t="s">
@@ -4754,12 +5338,15 @@
       <c r="E195" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196">
         <v>55274</v>
       </c>
       <c r="C196" t="s">
@@ -4771,12 +5358,15 @@
       <c r="E196" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197">
         <v>55029</v>
       </c>
       <c r="C197" t="s">
@@ -4788,12 +5378,15 @@
       <c r="E197" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>4</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198">
         <v>50579</v>
       </c>
       <c r="C198" t="s">
@@ -4805,12 +5398,15 @@
       <c r="E198" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>4</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199">
         <v>55415</v>
       </c>
       <c r="C199" t="s">
@@ -4822,12 +5418,15 @@
       <c r="E199" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200">
         <v>54797</v>
       </c>
       <c r="C200" t="s">
@@ -4839,12 +5438,15 @@
       <c r="E200" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201">
         <v>55040</v>
       </c>
       <c r="C201" t="s">
@@ -4856,12 +5458,15 @@
       <c r="E201" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>4</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202">
         <v>54595</v>
       </c>
       <c r="C202" t="s">
@@ -4873,12 +5478,15 @@
       <c r="E202" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>4</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203">
         <v>55403</v>
       </c>
       <c r="C203" t="s">
@@ -4890,12 +5498,15 @@
       <c r="E203" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>4</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204">
         <v>55286</v>
       </c>
       <c r="C204" t="s">
@@ -4907,12 +5518,15 @@
       <c r="E204" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205">
         <v>55603</v>
       </c>
       <c r="C205" t="s">
@@ -4924,12 +5538,15 @@
       <c r="E205" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>4</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206">
         <v>55397</v>
       </c>
       <c r="C206" t="s">
@@ -4941,12 +5558,15 @@
       <c r="E206" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>4</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207">
         <v>55156</v>
       </c>
       <c r="C207" t="s">
@@ -4958,12 +5578,15 @@
       <c r="E207" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208">
         <v>55426</v>
       </c>
       <c r="C208" t="s">
@@ -4975,12 +5598,15 @@
       <c r="E208" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209">
         <v>51910</v>
       </c>
       <c r="C209" t="s">
@@ -4992,12 +5618,15 @@
       <c r="E209" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>4</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210">
         <v>55310</v>
       </c>
       <c r="C210" t="s">
@@ -5009,12 +5638,15 @@
       <c r="E210" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>4</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211">
         <v>55511</v>
       </c>
       <c r="C211" t="s">
@@ -5026,12 +5658,15 @@
       <c r="E211" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>4</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212">
         <v>54698</v>
       </c>
       <c r="C212" t="s">
@@ -5043,12 +5678,15 @@
       <c r="E212" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>4</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213">
         <v>52606</v>
       </c>
       <c r="C213" t="s">
@@ -5060,12 +5698,15 @@
       <c r="E213" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214">
         <v>55637</v>
       </c>
       <c r="C214" t="s">
@@ -5077,12 +5718,15 @@
       <c r="E214" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>4</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215">
         <v>53236</v>
       </c>
       <c r="C215" t="s">
@@ -5094,12 +5738,15 @@
       <c r="E215" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216">
         <v>51833</v>
       </c>
       <c r="C216" t="s">
@@ -5111,12 +5758,15 @@
       <c r="E216" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>4</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217">
         <v>55625</v>
       </c>
       <c r="C217" t="s">
@@ -5128,12 +5778,15 @@
       <c r="E217" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218">
         <v>55147</v>
       </c>
       <c r="C218" t="s">
@@ -5145,12 +5798,15 @@
       <c r="E218" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>4</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219">
         <v>55494</v>
       </c>
       <c r="C219" t="s">
@@ -5162,12 +5818,15 @@
       <c r="E219" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220">
         <v>54643</v>
       </c>
       <c r="C220" t="s">
@@ -5179,12 +5838,15 @@
       <c r="E220" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221">
         <v>51545</v>
       </c>
       <c r="C221" t="s">
@@ -5196,12 +5858,15 @@
       <c r="E221" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>4</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222">
         <v>55654</v>
       </c>
       <c r="C222" t="s">
@@ -5213,12 +5878,15 @@
       <c r="E222" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>4</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223">
         <v>53561</v>
       </c>
       <c r="C223" t="s">
@@ -5230,12 +5898,15 @@
       <c r="E223" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224">
         <v>55648</v>
       </c>
       <c r="C224" t="s">
@@ -5247,12 +5918,15 @@
       <c r="E224" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>4</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225">
         <v>55317</v>
       </c>
       <c r="C225" t="s">
@@ -5264,12 +5938,15 @@
       <c r="E225" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>4</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226">
         <v>55010</v>
       </c>
       <c r="C226" t="s">
@@ -5281,12 +5958,15 @@
       <c r="E226" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>4</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227">
         <v>54041</v>
       </c>
       <c r="C227" t="s">
@@ -5298,12 +5978,15 @@
       <c r="E227" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>4</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228">
         <v>55639</v>
       </c>
       <c r="C228" t="s">
@@ -5315,12 +5998,15 @@
       <c r="E228" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229">
         <v>54284</v>
       </c>
       <c r="C229" t="s">
@@ -5332,12 +6018,15 @@
       <c r="E229" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230">
         <v>55609</v>
       </c>
       <c r="C230" t="s">
@@ -5349,12 +6038,15 @@
       <c r="E230" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>4</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231">
         <v>55353</v>
       </c>
       <c r="C231" t="s">
@@ -5366,12 +6058,15 @@
       <c r="E231" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232">
         <v>55448</v>
       </c>
       <c r="C232" t="s">
@@ -5383,12 +6078,15 @@
       <c r="E232" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233">
         <v>55647</v>
       </c>
       <c r="C233" t="s">
@@ -5400,12 +6098,15 @@
       <c r="E233" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>4</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234">
         <v>55283</v>
       </c>
       <c r="C234" t="s">
@@ -5417,12 +6118,15 @@
       <c r="E234" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>4</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235">
         <v>53735</v>
       </c>
       <c r="C235" t="s">
@@ -5434,12 +6138,15 @@
       <c r="E235" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236">
         <v>54646</v>
       </c>
       <c r="C236" t="s">
@@ -5451,12 +6158,15 @@
       <c r="E236" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237">
         <v>55601</v>
       </c>
       <c r="C237" t="s">
@@ -5468,12 +6178,15 @@
       <c r="E237" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>4</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238">
         <v>55247</v>
       </c>
       <c r="C238" t="s">
@@ -5485,12 +6198,15 @@
       <c r="E238" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>4</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239">
         <v>55572</v>
       </c>
       <c r="C239" t="s">
@@ -5502,12 +6218,15 @@
       <c r="E239" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240">
         <v>55600</v>
       </c>
       <c r="C240" t="s">
@@ -5519,12 +6238,15 @@
       <c r="E240" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241">
         <v>55235</v>
       </c>
       <c r="C241" t="s">
@@ -5536,12 +6258,15 @@
       <c r="E241" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>4</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242">
         <v>55632</v>
       </c>
       <c r="C242" t="s">
@@ -5553,12 +6278,15 @@
       <c r="E242" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>4</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243">
         <v>55450</v>
       </c>
       <c r="C243" t="s">
@@ -5570,12 +6298,15 @@
       <c r="E243" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>4</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244">
         <v>51400</v>
       </c>
       <c r="C244" t="s">
@@ -5587,12 +6318,15 @@
       <c r="E244" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>4</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245">
         <v>55479</v>
       </c>
       <c r="C245" t="s">
@@ -5604,12 +6338,15 @@
       <c r="E245" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>4</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246">
         <v>55115</v>
       </c>
       <c r="C246" t="s">
@@ -5621,12 +6358,15 @@
       <c r="E246" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>4</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247">
         <v>55497</v>
       </c>
       <c r="C247" t="s">
@@ -5638,12 +6378,15 @@
       <c r="E247" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248">
         <v>55723</v>
       </c>
       <c r="C248" t="s">
@@ -5655,12 +6398,15 @@
       <c r="E248" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249">
         <v>53401</v>
       </c>
       <c r="C249" t="s">
@@ -5672,12 +6418,15 @@
       <c r="E249" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>4</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250">
         <v>55621</v>
       </c>
       <c r="C250" t="s">
@@ -5689,12 +6438,15 @@
       <c r="E250" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>4</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251">
         <v>55702</v>
       </c>
       <c r="C251" t="s">
@@ -5706,12 +6458,15 @@
       <c r="E251" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>4</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252">
         <v>53896</v>
       </c>
       <c r="C252" t="s">
@@ -5723,12 +6478,15 @@
       <c r="E252" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>4</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253">
         <v>54922</v>
       </c>
       <c r="C253" t="s">
@@ -5740,12 +6498,15 @@
       <c r="E253" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>4</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254">
         <v>49323</v>
       </c>
       <c r="C254" t="s">
@@ -5757,12 +6518,15 @@
       <c r="E254" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>4</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255">
         <v>52635</v>
       </c>
       <c r="C255" t="s">
@@ -5774,12 +6538,15 @@
       <c r="E255" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256">
         <v>55783</v>
       </c>
       <c r="C256" t="s">
@@ -5791,12 +6558,15 @@
       <c r="E256" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257">
         <v>55212</v>
       </c>
       <c r="C257" t="s">
@@ -5808,12 +6578,15 @@
       <c r="E257" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>4</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258">
         <v>54434</v>
       </c>
       <c r="C258" t="s">
@@ -5825,12 +6598,15 @@
       <c r="E258" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>4</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259">
         <v>54750</v>
       </c>
       <c r="C259" t="s">
@@ -5842,12 +6618,15 @@
       <c r="E259" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>4</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260">
         <v>54842</v>
       </c>
       <c r="C260" t="s">
@@ -5859,12 +6638,15 @@
       <c r="E260" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>4</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261">
         <v>55657</v>
       </c>
       <c r="C261" t="s">
@@ -5876,12 +6658,15 @@
       <c r="E261" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>4</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262">
         <v>55506</v>
       </c>
       <c r="C262" t="s">
@@ -5893,12 +6678,15 @@
       <c r="E262" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>4</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263">
         <v>55098</v>
       </c>
       <c r="C263" t="s">
@@ -5910,44 +6698,56 @@
       <c r="E263" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>4</v>
       </c>
-      <c r="B264" s="1">
-        <v>55249</v>
+      <c r="B264">
+        <v>53225</v>
       </c>
       <c r="C264" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D264" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E264" t="s">
+        <v>282</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
-      <c r="B265" s="1">
-        <v>53225</v>
+      <c r="B265">
+        <v>55677</v>
       </c>
       <c r="C265" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D265" t="s">
         <v>21</v>
       </c>
       <c r="E265" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="F265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>4</v>
       </c>
-      <c r="B266" s="1">
-        <v>55677</v>
+      <c r="B266">
+        <v>55227</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
@@ -5956,15 +6756,18 @@
         <v>21</v>
       </c>
       <c r="E266" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="F266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
-      <c r="B267" s="1">
-        <v>55227</v>
+      <c r="B267">
+        <v>54096</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -5973,15 +6776,18 @@
         <v>21</v>
       </c>
       <c r="E267" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="F267">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>4</v>
       </c>
-      <c r="B268" s="1">
-        <v>54096</v>
+      <c r="B268">
+        <v>53097</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -5990,15 +6796,18 @@
         <v>21</v>
       </c>
       <c r="E268" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="F268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>4</v>
       </c>
-      <c r="B269" s="1">
-        <v>53097</v>
+      <c r="B269">
+        <v>52924</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -6007,32 +6816,38 @@
         <v>21</v>
       </c>
       <c r="E269" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="F269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>4</v>
       </c>
-      <c r="B270" s="1">
-        <v>52924</v>
+      <c r="B270">
+        <v>55015</v>
       </c>
       <c r="C270" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D270" t="s">
         <v>21</v>
       </c>
       <c r="E270" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="F270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>4</v>
       </c>
-      <c r="B271" s="1">
-        <v>55015</v>
+      <c r="B271">
+        <v>55548</v>
       </c>
       <c r="C271" t="s">
         <v>8</v>
@@ -6041,32 +6856,38 @@
         <v>21</v>
       </c>
       <c r="E271" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>4</v>
       </c>
-      <c r="B272" s="1">
-        <v>55548</v>
+      <c r="B272">
+        <v>50691</v>
       </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D272" t="s">
         <v>21</v>
       </c>
       <c r="E272" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="F272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>4</v>
       </c>
-      <c r="B273" s="1">
-        <v>50691</v>
+      <c r="B273">
+        <v>55224</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -6075,32 +6896,38 @@
         <v>21</v>
       </c>
       <c r="E273" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="F273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
-      <c r="B274" s="1">
-        <v>55224</v>
+      <c r="B274">
+        <v>55758</v>
       </c>
       <c r="C274" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D274" t="s">
         <v>21</v>
       </c>
       <c r="E274" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="F274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>4</v>
       </c>
-      <c r="B275" s="1">
-        <v>55758</v>
+      <c r="B275">
+        <v>55037</v>
       </c>
       <c r="C275" t="s">
         <v>8</v>
@@ -6109,117 +6936,138 @@
         <v>21</v>
       </c>
       <c r="E275" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="F275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>4</v>
       </c>
-      <c r="B276" s="1">
-        <v>55037</v>
+      <c r="B276">
+        <v>55498</v>
       </c>
       <c r="C276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D276" t="s">
         <v>21</v>
       </c>
       <c r="E276" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="F276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
-      <c r="B277" s="1">
-        <v>55498</v>
+      <c r="B277">
+        <v>55778</v>
       </c>
       <c r="C277" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D277" t="s">
         <v>21</v>
       </c>
       <c r="E277" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>4</v>
       </c>
-      <c r="B278" s="1">
-        <v>55778</v>
+      <c r="B278">
+        <v>55140</v>
       </c>
       <c r="C278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D278" t="s">
         <v>21</v>
       </c>
       <c r="E278" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="F278">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>4</v>
       </c>
-      <c r="B279" s="1">
-        <v>55140</v>
+      <c r="B279">
+        <v>55549</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D279" t="s">
         <v>21</v>
       </c>
       <c r="E279" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>4</v>
       </c>
-      <c r="B280" s="1">
-        <v>55549</v>
+      <c r="B280">
+        <v>55499</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D280" t="s">
         <v>21</v>
       </c>
       <c r="E280" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="F280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>4</v>
       </c>
-      <c r="B281" s="1">
-        <v>55499</v>
+      <c r="B281">
+        <v>55775</v>
       </c>
       <c r="C281" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D281" t="s">
         <v>21</v>
       </c>
       <c r="E281" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
-      <c r="B282" s="1">
-        <v>55775</v>
+      <c r="B282">
+        <v>52647</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
@@ -6228,66 +7076,78 @@
         <v>21</v>
       </c>
       <c r="E282" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>4</v>
       </c>
-      <c r="B283" s="1">
-        <v>52647</v>
+      <c r="B283">
+        <v>49714</v>
       </c>
       <c r="C283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D283" t="s">
         <v>21</v>
       </c>
       <c r="E283" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>4</v>
       </c>
-      <c r="B284" s="1">
-        <v>49714</v>
+      <c r="B284">
+        <v>55456</v>
       </c>
       <c r="C284" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D284" t="s">
         <v>21</v>
       </c>
       <c r="E284" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>4</v>
       </c>
-      <c r="B285" s="1">
-        <v>55456</v>
+      <c r="B285">
+        <v>55405</v>
       </c>
       <c r="C285" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D285" t="s">
         <v>21</v>
       </c>
       <c r="E285" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>4</v>
       </c>
-      <c r="B286" s="1">
-        <v>55405</v>
+      <c r="B286">
+        <v>53040</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -6296,49 +7156,58 @@
         <v>21</v>
       </c>
       <c r="E286" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="F286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>4</v>
       </c>
-      <c r="B287" s="1">
-        <v>53040</v>
+      <c r="B287">
+        <v>53278</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D287" t="s">
         <v>21</v>
       </c>
       <c r="E287" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="F287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>4</v>
       </c>
-      <c r="B288" s="1">
-        <v>53278</v>
+      <c r="B288">
+        <v>55784</v>
       </c>
       <c r="C288" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D288" t="s">
         <v>21</v>
       </c>
       <c r="E288" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="F288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>4</v>
       </c>
-      <c r="B289" s="1">
-        <v>55784</v>
+      <c r="B289">
+        <v>55332</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
@@ -6347,32 +7216,38 @@
         <v>21</v>
       </c>
       <c r="E289" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="F289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
-      <c r="B290" s="1">
-        <v>55332</v>
+      <c r="B290">
+        <v>55395</v>
       </c>
       <c r="C290" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D290" t="s">
         <v>21</v>
       </c>
       <c r="E290" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="F290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>4</v>
       </c>
-      <c r="B291" s="1">
-        <v>55395</v>
+      <c r="B291">
+        <v>54672</v>
       </c>
       <c r="C291" t="s">
         <v>8</v>
@@ -6381,49 +7256,58 @@
         <v>21</v>
       </c>
       <c r="E291" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="F291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>4</v>
       </c>
-      <c r="B292" s="1">
-        <v>54672</v>
+      <c r="B292">
+        <v>53436</v>
       </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D292" t="s">
         <v>21</v>
       </c>
       <c r="E292" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="F292">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>4</v>
       </c>
-      <c r="B293" s="1">
-        <v>53436</v>
+      <c r="B293">
+        <v>53473</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D293" t="s">
         <v>21</v>
       </c>
       <c r="E293" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>4</v>
       </c>
-      <c r="B294" s="1">
-        <v>53473</v>
+      <c r="B294">
+        <v>53186</v>
       </c>
       <c r="C294" t="s">
         <v>8</v>
@@ -6432,32 +7316,38 @@
         <v>21</v>
       </c>
       <c r="E294" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>4</v>
       </c>
-      <c r="B295" s="1">
-        <v>53186</v>
+      <c r="B295">
+        <v>55590</v>
       </c>
       <c r="C295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D295" t="s">
         <v>21</v>
       </c>
       <c r="E295" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="F295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>4</v>
       </c>
-      <c r="B296" s="1">
-        <v>55590</v>
+      <c r="B296">
+        <v>52771</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
@@ -6466,32 +7356,38 @@
         <v>21</v>
       </c>
       <c r="E296" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="F296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>4</v>
       </c>
-      <c r="B297" s="1">
-        <v>52771</v>
+      <c r="B297">
+        <v>55236</v>
       </c>
       <c r="C297" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D297" t="s">
         <v>21</v>
       </c>
       <c r="E297" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>4</v>
       </c>
-      <c r="B298" s="1">
-        <v>55236</v>
+      <c r="B298">
+        <v>55214</v>
       </c>
       <c r="C298" t="s">
         <v>8</v>
@@ -6500,66 +7396,78 @@
         <v>21</v>
       </c>
       <c r="E298" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="F298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>4</v>
       </c>
-      <c r="B299" s="1">
-        <v>55214</v>
+      <c r="B299">
+        <v>55712</v>
       </c>
       <c r="C299" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D299" t="s">
         <v>21</v>
       </c>
       <c r="E299" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="F299">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>4</v>
       </c>
-      <c r="B300" s="1">
-        <v>55712</v>
+      <c r="B300">
+        <v>53812</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D300" t="s">
         <v>21</v>
       </c>
       <c r="E300" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="F300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>4</v>
       </c>
-      <c r="B301" s="1">
-        <v>53812</v>
+      <c r="B301">
+        <v>55695</v>
       </c>
       <c r="C301" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D301" t="s">
         <v>21</v>
       </c>
       <c r="E301" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="F301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>4</v>
       </c>
-      <c r="B302" s="1">
-        <v>55695</v>
+      <c r="B302">
+        <v>55779</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
@@ -6568,49 +7476,58 @@
         <v>21</v>
       </c>
       <c r="E302" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="F302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>4</v>
       </c>
-      <c r="B303" s="1">
-        <v>55779</v>
+      <c r="B303">
+        <v>55009</v>
       </c>
       <c r="C303" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D303" t="s">
         <v>21</v>
       </c>
       <c r="E303" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="F303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>4</v>
       </c>
-      <c r="B304" s="1">
-        <v>55009</v>
+      <c r="B304">
+        <v>55292</v>
       </c>
       <c r="C304" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D304" t="s">
         <v>21</v>
       </c>
       <c r="E304" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="F304">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>4</v>
       </c>
-      <c r="B305" s="1">
-        <v>55292</v>
+      <c r="B305">
+        <v>55039</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -6619,32 +7536,38 @@
         <v>21</v>
       </c>
       <c r="E305" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="F305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>4</v>
       </c>
-      <c r="B306" s="1">
-        <v>55039</v>
+      <c r="B306">
+        <v>54640</v>
       </c>
       <c r="C306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D306" t="s">
         <v>21</v>
       </c>
       <c r="E306" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="F306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>4</v>
       </c>
-      <c r="B307" s="1">
-        <v>54640</v>
+      <c r="B307">
+        <v>55550</v>
       </c>
       <c r="C307" t="s">
         <v>8</v>
@@ -6653,15 +7576,18 @@
         <v>21</v>
       </c>
       <c r="E307" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="F307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>4</v>
       </c>
-      <c r="B308" s="1">
-        <v>55550</v>
+      <c r="B308">
+        <v>55666</v>
       </c>
       <c r="C308" t="s">
         <v>8</v>
@@ -6670,66 +7596,78 @@
         <v>21</v>
       </c>
       <c r="E308" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="F308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>4</v>
       </c>
-      <c r="B309" s="1">
-        <v>55666</v>
+      <c r="B309">
+        <v>55746</v>
       </c>
       <c r="C309" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D309" t="s">
         <v>21</v>
       </c>
       <c r="E309" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="F309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>4</v>
       </c>
-      <c r="B310" s="1">
-        <v>55746</v>
+      <c r="B310">
+        <v>55255</v>
       </c>
       <c r="C310" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D310" t="s">
         <v>21</v>
       </c>
       <c r="E310" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>4</v>
       </c>
-      <c r="B311" s="1">
-        <v>55255</v>
+      <c r="B311">
+        <v>55110</v>
       </c>
       <c r="C311" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D311" t="s">
         <v>21</v>
       </c>
       <c r="E311" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="F311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>4</v>
       </c>
-      <c r="B312" s="1">
-        <v>55110</v>
+      <c r="B312">
+        <v>55314</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -6738,32 +7676,38 @@
         <v>21</v>
       </c>
       <c r="E312" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="F312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>4</v>
       </c>
-      <c r="B313" s="1">
-        <v>55314</v>
+      <c r="B313">
+        <v>49748</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D313" t="s">
         <v>21</v>
       </c>
       <c r="E313" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="F313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>4</v>
       </c>
-      <c r="B314" s="1">
-        <v>49748</v>
+      <c r="B314">
+        <v>55583</v>
       </c>
       <c r="C314" t="s">
         <v>8</v>
@@ -6772,49 +7716,58 @@
         <v>21</v>
       </c>
       <c r="E314" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="F314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>4</v>
       </c>
-      <c r="B315" s="1">
-        <v>55583</v>
+      <c r="B315">
+        <v>55345</v>
       </c>
       <c r="C315" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D315" t="s">
         <v>21</v>
       </c>
       <c r="E315" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="F315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>4</v>
       </c>
-      <c r="B316" s="1">
-        <v>55345</v>
+      <c r="B316">
+        <v>55379</v>
       </c>
       <c r="C316" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D316" t="s">
         <v>21</v>
       </c>
       <c r="E316" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>4</v>
       </c>
-      <c r="B317" s="1">
-        <v>55379</v>
+      <c r="B317">
+        <v>55527</v>
       </c>
       <c r="C317" t="s">
         <v>8</v>
@@ -6823,66 +7776,78 @@
         <v>21</v>
       </c>
       <c r="E317" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>4</v>
       </c>
-      <c r="B318" s="1">
-        <v>55527</v>
+      <c r="B318">
+        <v>55816</v>
       </c>
       <c r="C318" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D318" t="s">
         <v>21</v>
       </c>
       <c r="E318" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="F318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>4</v>
       </c>
-      <c r="B319" s="1">
-        <v>55816</v>
+      <c r="B319">
+        <v>54373</v>
       </c>
       <c r="C319" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D319" t="s">
         <v>21</v>
       </c>
       <c r="E319" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="F319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>4</v>
       </c>
-      <c r="B320" s="1">
-        <v>54373</v>
+      <c r="B320">
+        <v>55289</v>
       </c>
       <c r="C320" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D320" t="s">
         <v>21</v>
       </c>
       <c r="E320" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="F320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>4</v>
       </c>
-      <c r="B321" s="1">
-        <v>55289</v>
+      <c r="B321">
+        <v>55049</v>
       </c>
       <c r="C321" t="s">
         <v>8</v>
@@ -6891,32 +7856,38 @@
         <v>21</v>
       </c>
       <c r="E321" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="F321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>4</v>
       </c>
-      <c r="B322" s="1">
-        <v>55049</v>
+      <c r="B322">
+        <v>54807</v>
       </c>
       <c r="C322" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D322" t="s">
         <v>21</v>
       </c>
       <c r="E322" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="F322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>4</v>
       </c>
-      <c r="B323" s="1">
-        <v>54807</v>
+      <c r="B323">
+        <v>55794</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -6925,41 +7896,30 @@
         <v>21</v>
       </c>
       <c r="E323" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="F323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>4</v>
       </c>
-      <c r="B324" s="1">
-        <v>55794</v>
+      <c r="B324">
+        <v>55349</v>
       </c>
       <c r="C324" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D324" t="s">
         <v>21</v>
       </c>
       <c r="E324" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>4</v>
-      </c>
-      <c r="B325" s="1">
-        <v>55349</v>
-      </c>
-      <c r="C325" t="s">
-        <v>8</v>
-      </c>
-      <c r="D325" t="s">
-        <v>21</v>
-      </c>
-      <c r="E325" t="s">
         <v>342</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
